--- a/DATA_goal/Junction_Flooding_125.xlsx
+++ b/DATA_goal/Junction_Flooding_125.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41557.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>50.09</v>
+        <v>5.01</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41557.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>57.52</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>4.11</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41557.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.92</v>
+        <v>1.29</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>27.67</v>
+        <v>2.77</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>35.7</v>
+        <v>3.57</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.75</v>
+        <v>1.17</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.51</v>
+        <v>1.15</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>144.64</v>
+        <v>14.46</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>27.61</v>
+        <v>2.76</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.59</v>
+        <v>1.86</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.17</v>
+        <v>1.02</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.69</v>
+        <v>1.87</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.75</v>
+        <v>0.77</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.87</v>
+        <v>3.19</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41557.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.42</v>
+        <v>3.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.82</v>
+        <v>3.28</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.07</v>
+        <v>5.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.8</v>
+        <v>2.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.28</v>
+        <v>1.63</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.05</v>
+        <v>1.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.31</v>
+        <v>2.03</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.75</v>
+        <v>1.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>208.82</v>
+        <v>20.88</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.5</v>
+        <v>3.95</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.71</v>
+        <v>2.67</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.2</v>
+        <v>2.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.78</v>
+        <v>1.18</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.78</v>
+        <v>1.68</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>48.79</v>
+        <v>4.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41557.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>31.71</v>
+        <v>3.17</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>26.39</v>
+        <v>2.64</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>45.95</v>
+        <v>4.6</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.3</v>
+        <v>1.13</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>16.35</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>166.51</v>
+        <v>16.65</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>31.82</v>
+        <v>3.18</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>21.53</v>
+        <v>2.15</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>22.65</v>
+        <v>2.27</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>41.51</v>
+        <v>4.15</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41557.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>23.82</v>
+        <v>2.38</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>51.59</v>
+        <v>5.16</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>42.78</v>
+        <v>4.28</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>71.3</v>
+        <v>7.13</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>28.62</v>
+        <v>2.86</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>12.9</v>
+        <v>1.29</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>19.4</v>
+        <v>1.94</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>20.98</v>
+        <v>2.1</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>21.79</v>
+        <v>2.18</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>26.56</v>
+        <v>2.66</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>275.27</v>
+        <v>27.53</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>51.75</v>
+        <v>5.18</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>35.05</v>
+        <v>3.51</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>35.32</v>
+        <v>3.53</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>15.52</v>
+        <v>1.55</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>21.86</v>
+        <v>2.19</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>64.47</v>
+        <v>6.45</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>21.33</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41557.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>19.82</v>
+        <v>1.98</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>16.5</v>
+        <v>1.65</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>32.52</v>
+        <v>3.25</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>10.95</v>
+        <v>1.09</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7.05</v>
+        <v>0.7</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>101.33</v>
+        <v>10.13</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>20.01</v>
+        <v>2</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>29.6</v>
+        <v>2.96</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.85</v>
+        <v>0.38</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41557.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14.87</v>
+        <v>1.49</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>32.16</v>
+        <v>3.22</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>26.68</v>
+        <v>2.67</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>44.39</v>
+        <v>4.44</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>17.83</v>
+        <v>1.78</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>168.84</v>
+        <v>16.88</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>32.21</v>
+        <v>3.22</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>21.82</v>
+        <v>2.18</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>21.9</v>
+        <v>2.19</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>39.96</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41557.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>3.35</v>
+        <v>0.34</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>40.72</v>
+        <v>4.07</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>3.75</v>
+        <v>0.38</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>15.85</v>
+        <v>1.58</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_125.xlsx
+++ b/DATA_goal/Junction_Flooding_125.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,37 +443,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41557.34027777778</v>
+        <v>44806.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>1.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>1.18</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>3.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.96</v>
+        <v>2.99</v>
       </c>
       <c r="G2" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.76</v>
+        <v>2.22</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.21</v>
+        <v>1.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>1.21</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.49</v>
+        <v>1.54</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.57</v>
+        <v>3.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.39</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41557.34722222222</v>
+        <v>44806.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.79</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.17</v>
+        <v>2.49</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.98</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.91</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.46</v>
+        <v>3.6</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.62</v>
+        <v>1.4</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.59</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.86</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.99</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.46</v>
+        <v>1.03</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.26</v>
+        <v>3.3</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.46</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41557.35416666666</v>
+        <v>44806.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.57</v>
+        <v>3.95</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>1.43</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.46</v>
+        <v>14.72</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.19</v>
+        <v>3.59</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41557.36111111111</v>
+        <v>44806.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.83</v>
+        <v>0.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.38</v>
+        <v>0.58</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.94</v>
+        <v>1.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.28</v>
+        <v>1.42</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.64</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.41</v>
+        <v>2.7</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.18</v>
+        <v>0.99</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.43</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.62</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.63</v>
+        <v>0.71</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.66</v>
+        <v>0.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.21</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.03</v>
+        <v>0.9</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>20.88</v>
+        <v>9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.95</v>
+        <v>1.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.29</v>
+        <v>0.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.67</v>
+        <v>1.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.43</v>
+        <v>0.62</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.72</v>
+        <v>1.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.13</v>
+        <v>0.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.47</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.18</v>
+        <v>0.55</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.68</v>
+        <v>0.74</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.88</v>
+        <v>2.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41557.36805555555</v>
+        <v>44806.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.47</v>
+        <v>19.7</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.11</v>
+        <v>14.52</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>1.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.17</v>
+        <v>42.82</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.64</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.13</v>
+        <v>15.5</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.6</v>
+        <v>57.47</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.75</v>
+        <v>23.85</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.79</v>
+        <v>10.58</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.2</v>
+        <v>15.66</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.31</v>
+        <v>17.19</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.33</v>
+        <v>18.12</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.36</v>
+        <v>4.95</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.13</v>
+        <v>15.41</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.64</v>
+        <v>21.92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.95</v>
+        <v>13</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.7</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.76</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>16.65</v>
+        <v>227.3</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.18</v>
+        <v>43.04</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.04</v>
+        <v>14.23</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.15</v>
+        <v>28.93</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.15</v>
+        <v>15.18</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.15</v>
+        <v>2.28</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.27</v>
+        <v>28.32</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.91</v>
+        <v>12.57</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.86</v>
+        <v>11.15</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.95</v>
+        <v>13.1</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.35</v>
+        <v>18.03</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.15</v>
+        <v>52.1</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.61</v>
+        <v>8</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41557.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>27.53</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41557.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41557.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>16.88</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41557.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41557.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>34.13</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>25.85</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>30.56</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>10.69</v>
+        <v>17.79</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_125.xlsx
+++ b/DATA_goal/Junction_Flooding_125.xlsx
@@ -443,12 +443,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -461,7 +461,7 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -470,10 +470,10 @@
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44806.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.78</v>
+        <v>37.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.36</v>
+        <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.35</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.44</v>
+        <v>204.37</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.86</v>
+        <v>38.64</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.53</v>
+        <v>25.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.22</v>
+        <v>22.23</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44806.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.65</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.49</v>
+        <v>24.9</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.77</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.6</v>
+        <v>36.01</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.35</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.64</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13</v>
+        <v>130.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.53</v>
+        <v>25.31</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.61</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.41</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.3</v>
+        <v>32.99</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.52</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44806.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.81</v>
+        <v>28.14</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.27</v>
+        <v>22.66</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.95</v>
+        <v>39.46</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.82</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.75</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.72</v>
+        <v>147.18</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.84</v>
+        <v>28.38</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.85</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.84</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.08</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.46</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.59</v>
+        <v>35.85</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44806.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.17</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.7</v>
+        <v>26.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="M5" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.8</v>
+        <v>17.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="AC5" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_125.xlsx
+++ b/DATA_goal/Junction_Flooding_125.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44806.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4</v>
+        <v>4.002</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>37.83</v>
+        <v>37.831</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>29.94</v>
+        <v>29.945</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.9</v>
+        <v>8.901999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.3</v>
+        <v>13.298</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.88</v>
+        <v>14.882</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.46</v>
+        <v>15.457</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.465</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.35</v>
+        <v>19.348</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12</v>
+        <v>12.001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>204.37</v>
+        <v>204.374</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.64</v>
+        <v>38.641</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>25.29</v>
+        <v>25.287</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.83</v>
+        <v>12.826</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.23</v>
+        <v>22.227</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.137</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.41</v>
+        <v>15.411</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.318</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.978</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.05</v>
+        <v>16.052</v>
       </c>
     </row>
     <row r="3">
@@ -765,97 +765,97 @@
         <v>7.94</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.65</v>
+        <v>1.647</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.9</v>
+        <v>24.905</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19.77</v>
+        <v>19.769</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.07</v>
+        <v>9.074</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.01</v>
+        <v>36.013</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.94</v>
+        <v>5.936</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.65</v>
+        <v>8.645</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.946999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.35</v>
+        <v>10.349</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.64</v>
+        <v>12.642</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.92</v>
+        <v>7.915</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.495</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>130.02</v>
+        <v>130.025</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>25.31</v>
+        <v>25.308</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.61</v>
+        <v>16.613</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.57</v>
+        <v>8.568</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.831</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.41</v>
+        <v>17.411</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.73</v>
+        <v>6.734</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>7.89</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.32</v>
+        <v>10.316</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.99</v>
+        <v>32.986</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.52</v>
+        <v>4.523</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
@@ -863,64 +863,64 @@
         <v>44806.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.97</v>
+        <v>12.971</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>9.278</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.206</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.14</v>
+        <v>28.141</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.66</v>
+        <v>22.657</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.21</v>
+        <v>10.208</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>39.46</v>
+        <v>39.461</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.83</v>
+        <v>6.832</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>10.01</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.284</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.82</v>
+        <v>11.823</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.26</v>
+        <v>3.261</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.32</v>
+        <v>14.325</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.75</v>
+        <v>8.749000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.01</v>
+        <v>1.012</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.726</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>147.18</v>
+        <v>147.179</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.38</v>
+        <v>28.384</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>9.369999999999999</v>
@@ -929,37 +929,37 @@
         <v>18.85</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.84</v>
+        <v>9.836</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.76</v>
+        <v>1.765</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.08</v>
+        <v>19.084</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>7.46</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.75</v>
+        <v>8.750999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.78</v>
+        <v>11.777</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>35.85</v>
+        <v>35.853</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.17</v>
+        <v>5.175</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.71</v>
+        <v>11.714</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44806.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>42.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>57.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.92</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>227.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>43.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.79</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_125.xlsx
+++ b/DATA_goal/Junction_Flooding_125.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         <v>44806.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.17</v>
+        <v>8.167</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>5.79</v>
@@ -976,94 +976,198 @@
         <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.72</v>
+        <v>17.724</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.17</v>
+        <v>14.166</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>26.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.22</v>
+        <v>6.218</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.11</v>
+        <v>7.113</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.44</v>
+        <v>7.444</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.06</v>
+        <v>2.055</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.01</v>
+        <v>9.015000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.57</v>
+        <v>5.567</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.477</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.95999999999999</v>
+        <v>89.965</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.96</v>
+        <v>17.962</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.9</v>
+        <v>5.899</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.88</v>
+        <v>11.883</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.18</v>
+        <v>6.179</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.16</v>
+        <v>1.164</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.79</v>
+        <v>12.794</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.73</v>
+        <v>4.726</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.54</v>
+        <v>5.538</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.42</v>
+        <v>7.421</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.65</v>
+        <v>24.652</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>3.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.38</v>
+        <v>7.376</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44806.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>57.47</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>43.04</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>17.79</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_125.xlsx
+++ b/DATA_goal/Junction_Flooding_125.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         <v>44806.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.167</v>
+        <v>8.17</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>5.79</v>
@@ -976,198 +976,94 @@
         <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.724</v>
+        <v>17.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.166</v>
+        <v>14.17</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.427</v>
+        <v>6.43</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>26.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.888999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.291</v>
+        <v>4.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.218</v>
+        <v>6.22</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.113</v>
+        <v>7.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.444</v>
+        <v>7.44</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.055</v>
+        <v>2.06</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.391</v>
+        <v>6.39</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.015000000000001</v>
+        <v>9.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.567</v>
+        <v>5.57</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.477</v>
+        <v>0.48</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.965</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.962</v>
+        <v>17.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.899</v>
+        <v>5.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.883</v>
+        <v>11.88</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.179</v>
+        <v>6.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.164</v>
+        <v>1.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.794</v>
+        <v>12.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.211</v>
+        <v>5.21</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.726</v>
+        <v>4.73</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.538</v>
+        <v>5.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.421</v>
+        <v>7.42</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.652</v>
+        <v>24.65</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>3.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.376</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44806.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>42.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>57.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.92</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>227.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>43.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.79</v>
+        <v>7.38</v>
       </c>
     </row>
   </sheetData>
